--- a/group-reports/tables/sharif-results.xlsx
+++ b/group-reports/tables/sharif-results.xlsx
@@ -722,12 +722,12 @@
       </c>
       <c r="O3" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>587</t>
         </is>
       </c>
       <c r="P3" s="1" t="inlineStr">
         <is>
-          <t>616567</t>
+          <t>701124</t>
         </is>
       </c>
       <c r="Q3" s="1" t="inlineStr">
@@ -844,12 +844,12 @@
       </c>
       <c r="O4" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>985</t>
         </is>
       </c>
       <c r="P4" s="1" t="inlineStr">
         <is>
-          <t>1664.2k</t>
+          <t>2283.8k</t>
         </is>
       </c>
       <c r="Q4" s="1" t="inlineStr">
@@ -966,12 +966,12 @@
       </c>
       <c r="O5" s="1" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>578</t>
         </is>
       </c>
       <c r="P5" s="1" t="inlineStr">
         <is>
-          <t>502523</t>
+          <t>833566</t>
         </is>
       </c>
       <c r="Q5" s="1" t="inlineStr">
@@ -1088,12 +1088,12 @@
       </c>
       <c r="O6" s="1" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>569</t>
         </is>
       </c>
       <c r="P6" s="1" t="inlineStr">
         <is>
-          <t>442230</t>
+          <t>453980</t>
         </is>
       </c>
       <c r="Q6" s="1" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="O7" s="1" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>479</t>
         </is>
       </c>
       <c r="P7" s="1" t="inlineStr">
         <is>
-          <t>20316k</t>
+          <t>20263k</t>
         </is>
       </c>
       <c r="Q7" s="1" t="inlineStr">
@@ -1332,12 +1332,12 @@
       </c>
       <c r="O8" s="1" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>587</t>
         </is>
       </c>
       <c r="P8" s="1" t="inlineStr">
         <is>
-          <t>1180.7k</t>
+          <t>1193.0k</t>
         </is>
       </c>
       <c r="Q8" s="1" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="O9" s="1" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>500</t>
         </is>
       </c>
       <c r="P9" s="1" t="inlineStr">
         <is>
-          <t>719230</t>
+          <t>783755</t>
         </is>
       </c>
       <c r="Q9" s="1" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="O10" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>392</t>
         </is>
       </c>
       <c r="P10" s="1" t="inlineStr">
         <is>
-          <t>793993</t>
+          <t>826038</t>
         </is>
       </c>
       <c r="Q10" s="1" t="inlineStr">
@@ -1698,12 +1698,12 @@
       </c>
       <c r="O11" s="1" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>643</t>
         </is>
       </c>
       <c r="P11" s="1" t="inlineStr">
         <is>
-          <t>867599</t>
+          <t>891430</t>
         </is>
       </c>
       <c r="Q11" s="1" t="inlineStr">
@@ -1820,12 +1820,12 @@
       </c>
       <c r="O12" s="1" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>635</t>
         </is>
       </c>
       <c r="P12" s="1" t="inlineStr">
         <is>
-          <t>735549</t>
+          <t>812513</t>
         </is>
       </c>
       <c r="Q12" s="1" t="inlineStr">
@@ -1942,12 +1942,12 @@
       </c>
       <c r="O13" s="1" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>897</t>
         </is>
       </c>
       <c r="P13" s="1" t="inlineStr">
         <is>
-          <t>874785</t>
+          <t>893861</t>
         </is>
       </c>
       <c r="Q13" s="1" t="inlineStr">
@@ -2064,12 +2064,12 @@
       </c>
       <c r="O14" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>905</t>
         </is>
       </c>
       <c r="P14" s="1" t="inlineStr">
         <is>
-          <t>1674.6k</t>
+          <t>2941.4k</t>
         </is>
       </c>
       <c r="Q14" s="1" t="inlineStr">
@@ -2186,12 +2186,12 @@
       </c>
       <c r="O15" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>551</t>
         </is>
       </c>
       <c r="P15" s="1" t="inlineStr">
         <is>
-          <t>468925</t>
+          <t>646099</t>
         </is>
       </c>
       <c r="Q15" s="1" t="inlineStr">
@@ -2308,12 +2308,12 @@
       </c>
       <c r="O16" s="1" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>627</t>
         </is>
       </c>
       <c r="P16" s="1" t="inlineStr">
         <is>
-          <t>788447</t>
+          <t>810721</t>
         </is>
       </c>
       <c r="Q16" s="1" t="inlineStr">
@@ -2430,12 +2430,12 @@
       </c>
       <c r="O17" s="1" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>402</t>
         </is>
       </c>
       <c r="P17" s="1" t="inlineStr">
         <is>
-          <t>747182</t>
+          <t>837399</t>
         </is>
       </c>
       <c r="Q17" s="1" t="inlineStr">
@@ -2552,12 +2552,12 @@
       </c>
       <c r="O18" s="1" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>646</t>
         </is>
       </c>
       <c r="P18" s="1" t="inlineStr">
         <is>
-          <t>459727</t>
+          <t>461274</t>
         </is>
       </c>
       <c r="Q18" s="1" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="O19" s="1" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>623</t>
         </is>
       </c>
       <c r="P19" s="1" t="inlineStr">
         <is>
-          <t>1485.5k</t>
+          <t>1705.6k</t>
         </is>
       </c>
       <c r="Q19" s="1" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="O20" s="1" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>767</t>
         </is>
       </c>
       <c r="P20" s="1" t="inlineStr">
         <is>
-          <t>1185.1k</t>
+          <t>1187.3k</t>
         </is>
       </c>
       <c r="Q20" s="1" t="inlineStr">
@@ -2918,12 +2918,12 @@
       </c>
       <c r="O21" s="1" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>699</t>
         </is>
       </c>
       <c r="P21" s="1" t="inlineStr">
         <is>
-          <t>726951</t>
+          <t>829431</t>
         </is>
       </c>
       <c r="Q21" s="1" t="inlineStr">
@@ -3040,12 +3040,12 @@
       </c>
       <c r="O22" s="1" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>652</t>
         </is>
       </c>
       <c r="P22" s="1" t="inlineStr">
         <is>
-          <t>629894</t>
+          <t>669866</t>
         </is>
       </c>
       <c r="Q22" s="1" t="inlineStr">
@@ -3162,12 +3162,12 @@
       </c>
       <c r="O23" s="1" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>455</t>
         </is>
       </c>
       <c r="P23" s="1" t="inlineStr">
         <is>
-          <t>841670</t>
+          <t>881095</t>
         </is>
       </c>
       <c r="Q23" s="1" t="inlineStr">
@@ -3284,12 +3284,12 @@
       </c>
       <c r="O24" s="1" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>702</t>
         </is>
       </c>
       <c r="P24" s="1" t="inlineStr">
         <is>
-          <t>713950</t>
+          <t>736755</t>
         </is>
       </c>
       <c r="Q24" s="1" t="inlineStr">
@@ -3406,12 +3406,12 @@
       </c>
       <c r="O25" s="1" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>477</t>
         </is>
       </c>
       <c r="P25" s="1" t="inlineStr">
         <is>
-          <t>470863</t>
+          <t>492913</t>
         </is>
       </c>
       <c r="Q25" s="1" t="inlineStr">
@@ -3528,12 +3528,12 @@
       </c>
       <c r="O26" s="1" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>545</t>
         </is>
       </c>
       <c r="P26" s="1" t="inlineStr">
         <is>
-          <t>763678</t>
+          <t>783086</t>
         </is>
       </c>
       <c r="Q26" s="1" t="inlineStr">
@@ -3650,12 +3650,12 @@
       </c>
       <c r="O27" s="1" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>452</t>
         </is>
       </c>
       <c r="P27" s="1" t="inlineStr">
         <is>
-          <t>394791</t>
+          <t>433936</t>
         </is>
       </c>
       <c r="Q27" s="1" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="O28" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>497</t>
         </is>
       </c>
       <c r="P28" s="1" t="inlineStr">
         <is>
-          <t>757779</t>
+          <t>759788</t>
         </is>
       </c>
       <c r="Q28" s="1" t="inlineStr">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="O29" s="1" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>608</t>
         </is>
       </c>
       <c r="P29" s="1" t="inlineStr">
         <is>
-          <t>1048.2k</t>
+          <t>1453.4k</t>
         </is>
       </c>
       <c r="Q29" s="1" t="inlineStr">
@@ -4016,12 +4016,12 @@
       </c>
       <c r="O30" s="1" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>694</t>
         </is>
       </c>
       <c r="P30" s="1" t="inlineStr">
         <is>
-          <t>1040.4k</t>
+          <t>1649.9k</t>
         </is>
       </c>
       <c r="Q30" s="1" t="inlineStr">
@@ -4138,12 +4138,12 @@
       </c>
       <c r="O31" s="1" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>496</t>
         </is>
       </c>
       <c r="P31" s="1" t="inlineStr">
         <is>
-          <t>768020</t>
+          <t>839150</t>
         </is>
       </c>
       <c r="Q31" s="1" t="inlineStr">
@@ -4260,12 +4260,12 @@
       </c>
       <c r="O32" s="1" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>539</t>
         </is>
       </c>
       <c r="P32" s="1" t="inlineStr">
         <is>
-          <t>856821</t>
+          <t>894701</t>
         </is>
       </c>
       <c r="Q32" s="1" t="inlineStr">
@@ -4382,12 +4382,12 @@
       </c>
       <c r="O33" s="1" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>501</t>
         </is>
       </c>
       <c r="P33" s="1" t="inlineStr">
         <is>
-          <t>515128</t>
+          <t>526823</t>
         </is>
       </c>
       <c r="Q33" s="1" t="inlineStr">
@@ -4504,12 +4504,12 @@
       </c>
       <c r="O34" s="1" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>488</t>
         </is>
       </c>
       <c r="P34" s="1" t="inlineStr">
         <is>
-          <t>736399</t>
+          <t>783065</t>
         </is>
       </c>
       <c r="Q34" s="1" t="inlineStr">
@@ -4626,12 +4626,12 @@
       </c>
       <c r="O35" s="1" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>515</t>
         </is>
       </c>
       <c r="P35" s="1" t="inlineStr">
         <is>
-          <t>503727</t>
+          <t>521805</t>
         </is>
       </c>
       <c r="Q35" s="1" t="inlineStr">
@@ -4748,12 +4748,12 @@
       </c>
       <c r="O36" s="1" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>647</t>
         </is>
       </c>
       <c r="P36" s="1" t="inlineStr">
         <is>
-          <t>800710</t>
+          <t>817326</t>
         </is>
       </c>
       <c r="Q36" s="1" t="inlineStr">
@@ -4870,12 +4870,12 @@
       </c>
       <c r="O37" s="1" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>533</t>
         </is>
       </c>
       <c r="P37" s="1" t="inlineStr">
         <is>
-          <t>1039.0k</t>
+          <t>1312.8k</t>
         </is>
       </c>
       <c r="Q37" s="1" t="inlineStr">
@@ -4992,12 +4992,12 @@
       </c>
       <c r="O38" s="1" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>828</t>
         </is>
       </c>
       <c r="P38" s="1" t="inlineStr">
         <is>
-          <t>463785</t>
+          <t>481918</t>
         </is>
       </c>
       <c r="Q38" s="1" t="inlineStr">

--- a/group-reports/tables/sharif-results.xlsx
+++ b/group-reports/tables/sharif-results.xlsx
@@ -732,7 +732,7 @@
       </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
-          <t>6855.23</t>
+          <t>23665.88</t>
         </is>
       </c>
       <c r="R3" s="1" t="inlineStr">
@@ -854,7 +854,7 @@
       </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
-          <t>87029.59</t>
+          <t>235508.67</t>
         </is>
       </c>
       <c r="R4" s="1" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
-          <t>6577.76</t>
+          <t>26207.52</t>
         </is>
       </c>
       <c r="R5" s="1" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
-          <t>11288.13</t>
+          <t>13450.46</t>
         </is>
       </c>
       <c r="R6" s="1" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
-          <t>7887.41</t>
+          <t>32728.36</t>
         </is>
       </c>
       <c r="R7" s="1" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="Q8" s="1" t="inlineStr">
         <is>
-          <t>6690.35</t>
+          <t>23994.83</t>
         </is>
       </c>
       <c r="R8" s="1" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="Q9" s="1" t="inlineStr">
         <is>
-          <t>10439.75</t>
+          <t>21851.64</t>
         </is>
       </c>
       <c r="R9" s="1" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="Q10" s="1" t="inlineStr">
         <is>
-          <t>7661.62</t>
+          <t>31595.36</t>
         </is>
       </c>
       <c r="R10" s="1" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="Q11" s="1" t="inlineStr">
         <is>
-          <t>11511.55</t>
+          <t>19921.21</t>
         </is>
       </c>
       <c r="R11" s="1" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="Q12" s="1" t="inlineStr">
         <is>
-          <t>10540.75</t>
+          <t>18283.45</t>
         </is>
       </c>
       <c r="R12" s="1" t="inlineStr">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="Q13" s="1" t="inlineStr">
         <is>
-          <t>10944.80</t>
+          <t>20155.50</t>
         </is>
       </c>
       <c r="R13" s="1" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="Q14" s="1" t="inlineStr">
         <is>
-          <t>78650.20</t>
+          <t>243416.89</t>
         </is>
       </c>
       <c r="R14" s="1" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="Q15" s="1" t="inlineStr">
         <is>
-          <t>11350.01</t>
+          <t>22394.93</t>
         </is>
       </c>
       <c r="R15" s="1" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="Q16" s="1" t="inlineStr">
         <is>
-          <t>9947.71</t>
+          <t>17198.73</t>
         </is>
       </c>
       <c r="R16" s="1" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="Q17" s="1" t="inlineStr">
         <is>
-          <t>10425.60</t>
+          <t>21417.70</t>
         </is>
       </c>
       <c r="R17" s="1" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="Q18" s="1" t="inlineStr">
         <is>
-          <t>12380.32</t>
+          <t>14898.78</t>
         </is>
       </c>
       <c r="R18" s="1" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="Q19" s="1" t="inlineStr">
         <is>
-          <t>75448.10</t>
+          <t>229553.92</t>
         </is>
       </c>
       <c r="R19" s="1" t="inlineStr">
@@ -2806,7 +2806,7 @@
       </c>
       <c r="Q20" s="1" t="inlineStr">
         <is>
-          <t>14830.62</t>
+          <t>17586.21</t>
         </is>
       </c>
       <c r="R20" s="1" t="inlineStr">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="Q21" s="1" t="inlineStr">
         <is>
-          <t>9798.96</t>
+          <t>18305.43</t>
         </is>
       </c>
       <c r="R21" s="1" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="Q22" s="1" t="inlineStr">
         <is>
-          <t>6072.57</t>
+          <t>23250.94</t>
         </is>
       </c>
       <c r="R22" s="1" t="inlineStr">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q23" s="1" t="inlineStr">
         <is>
-          <t>7904.69</t>
+          <t>30653.23</t>
         </is>
       </c>
       <c r="R23" s="1" t="inlineStr">
@@ -3294,7 +3294,7 @@
       </c>
       <c r="Q24" s="1" t="inlineStr">
         <is>
-          <t>13431.51</t>
+          <t>22516.62</t>
         </is>
       </c>
       <c r="R24" s="1" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="Q25" s="1" t="inlineStr">
         <is>
-          <t>6761.86</t>
+          <t>21775.56</t>
         </is>
       </c>
       <c r="R25" s="1" t="inlineStr">
@@ -3538,7 +3538,7 @@
       </c>
       <c r="Q26" s="1" t="inlineStr">
         <is>
-          <t>9333.86</t>
+          <t>16738.10</t>
         </is>
       </c>
       <c r="R26" s="1" t="inlineStr">
@@ -3660,7 +3660,7 @@
       </c>
       <c r="Q27" s="1" t="inlineStr">
         <is>
-          <t>12011.99</t>
+          <t>22695.29</t>
         </is>
       </c>
       <c r="R27" s="1" t="inlineStr">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="Q28" s="1" t="inlineStr">
         <is>
-          <t>11359.26</t>
+          <t>22316.50</t>
         </is>
       </c>
       <c r="R28" s="1" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q29" s="1" t="inlineStr">
         <is>
-          <t>44761.00</t>
+          <t>131398.97</t>
         </is>
       </c>
       <c r="R29" s="1" t="inlineStr">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="Q30" s="1" t="inlineStr">
         <is>
-          <t>47766.21</t>
+          <t>118408.09</t>
         </is>
       </c>
       <c r="R30" s="1" t="inlineStr">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="Q31" s="1" t="inlineStr">
         <is>
-          <t>9527.72</t>
+          <t>37284.45</t>
         </is>
       </c>
       <c r="R31" s="1" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="Q32" s="1" t="inlineStr">
         <is>
-          <t>6810.11</t>
+          <t>24542.30</t>
         </is>
       </c>
       <c r="R32" s="1" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="Q33" s="1" t="inlineStr">
         <is>
-          <t>13644.58</t>
+          <t>17630.12</t>
         </is>
       </c>
       <c r="R33" s="1" t="inlineStr">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="Q34" s="1" t="inlineStr">
         <is>
-          <t>11785.94</t>
+          <t>23868.75</t>
         </is>
       </c>
       <c r="R34" s="1" t="inlineStr">
@@ -4636,7 +4636,7 @@
       </c>
       <c r="Q35" s="1" t="inlineStr">
         <is>
-          <t>12004.24</t>
+          <t>16216.29</t>
         </is>
       </c>
       <c r="R35" s="1" t="inlineStr">
@@ -4758,7 +4758,7 @@
       </c>
       <c r="Q36" s="1" t="inlineStr">
         <is>
-          <t>9676.73</t>
+          <t>17008.13</t>
         </is>
       </c>
       <c r="R36" s="1" t="inlineStr">
@@ -4880,7 +4880,7 @@
       </c>
       <c r="Q37" s="1" t="inlineStr">
         <is>
-          <t>43735.10</t>
+          <t>130479.17</t>
         </is>
       </c>
       <c r="R37" s="1" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="Q38" s="1" t="inlineStr">
         <is>
-          <t>9487.62</t>
+          <t>16901.71</t>
         </is>
       </c>
       <c r="R38" s="1" t="inlineStr">
